--- a/Entregaveis-2°Sprint/Backlog-GraficoBurndown/Backlog-Grafico_atualizado.xlsx
+++ b/Entregaveis-2°Sprint/Backlog-GraficoBurndown/Backlog-Grafico_atualizado.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -321,7 +326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,7 +374,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,12 +413,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -449,22 +466,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -500,11 +506,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +547,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -558,7 +581,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Tabela Burndown - Cora-Life</a:t>
+              <a:t>Tabela Burndown - Coral-Life</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -572,10 +595,40 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9789064325074552E-2"/>
+          <c:y val="9.529891071629408E-2"/>
+          <c:w val="0.93101372799604243"/>
+          <c:h val="0.80249548840295137"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -605,55 +658,96 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tabela de backlog'!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Semana 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Semana 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Semana 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Semana 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Semana 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Semana 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'tabela de backlog'!$B$22:$D$22</c:f>
+              <c:f>'tabela de backlog'!$B$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138</c:v>
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A616-4FF7-A504-C3D2C3F5CCEB}"/>
             </c:ext>
@@ -685,35 +779,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'tabela de backlog'!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Semana 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Semana 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Semana 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Semana 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Semana 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Semana 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'tabela de backlog'!$B$23:$H$23</c:f>
@@ -745,7 +868,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A616-4FF7-A504-C3D2C3F5CCEB}"/>
             </c:ext>
@@ -759,13 +882,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247460992"/>
-        <c:axId val="247462528"/>
+        <c:axId val="218236032"/>
+        <c:axId val="218237568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247460992"/>
+        <c:axId val="218236032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +930,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247462528"/>
+        <c:crossAx val="218237568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -816,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247462528"/>
+        <c:axId val="218237568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +965,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -853,6 +977,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -867,7 +996,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247460992"/>
+        <c:crossAx val="218236032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -889,10 +1018,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1479,13 +1605,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1502,7 +1628,7 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1550,7 +1676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1585,7 +1711,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1762,7 +1888,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1966,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,15 +2108,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2034,7 +2160,9 @@
       <c r="F3" s="19">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -2055,7 +2183,9 @@
       <c r="F4" s="19">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -2076,7 +2206,9 @@
       <c r="F5" s="19">
         <v>3</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -2097,7 +2229,9 @@
       <c r="F6" s="19">
         <v>4</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -2118,7 +2252,9 @@
       <c r="F7" s="19">
         <v>5</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -2139,7 +2275,9 @@
       <c r="F8" s="19">
         <v>6</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -2160,7 +2298,9 @@
       <c r="F9" s="19">
         <v>7</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -2181,7 +2321,9 @@
       <c r="F10" s="19">
         <v>8</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -2202,7 +2344,9 @@
       <c r="F11" s="19">
         <v>9</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -2223,7 +2367,9 @@
       <c r="F12" s="19">
         <v>10</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
@@ -2244,7 +2390,9 @@
       <c r="F13" s="19">
         <v>11</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -2265,7 +2413,9 @@
       <c r="F14" s="19">
         <v>12</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -2286,7 +2436,9 @@
       <c r="F15" s="19">
         <v>13</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="22">
+        <v>43761</v>
+      </c>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2308,7 +2460,9 @@
       <c r="F16" s="19">
         <v>14</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
@@ -2329,7 +2483,9 @@
       <c r="F17" s="19">
         <v>15</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
@@ -2350,7 +2506,9 @@
       <c r="F18" s="19">
         <v>16</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
@@ -2371,7 +2529,9 @@
       <c r="F19" s="19">
         <v>17</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
@@ -2392,7 +2552,9 @@
       <c r="F20" s="19">
         <v>18</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -2413,7 +2575,9 @@
       <c r="F21" s="19">
         <v>19</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -2434,7 +2598,9 @@
       <c r="F22" s="19">
         <v>20</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="22">
+        <v>43761</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
@@ -2468,39 +2634,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2511,16 +2678,24 @@
       <c r="B2" s="19">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="23">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="23">
         <v>6</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2529,16 +2704,24 @@
       <c r="B3" s="19">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="23">
+        <v>11</v>
+      </c>
+      <c r="D3" s="23">
+        <v>4</v>
+      </c>
+      <c r="E3" s="24">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -2547,16 +2730,24 @@
       <c r="B4" s="19">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="23">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="23">
         <v>15</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2565,11 +2756,23 @@
       <c r="B5" s="19">
         <v>21</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="23">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="23">
         <v>5</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>5</v>
+      </c>
+      <c r="G5" s="23">
+        <v>6</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2579,11 +2782,23 @@
       <c r="B6" s="19">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="23">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <v>3</v>
+      </c>
+      <c r="E6" s="23">
+        <v>5</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2593,10 +2808,22 @@
       <c r="B7" s="19">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="23">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>8</v>
+      </c>
+      <c r="G7" s="23">
+        <v>5</v>
+      </c>
+      <c r="H7" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2607,11 +2834,23 @@
       <c r="B8" s="19">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="23">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="23">
         <v>7</v>
+      </c>
+      <c r="E8" s="23">
+        <v>3</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,10 +2860,22 @@
       <c r="B9" s="19">
         <v>21</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="23">
+        <v>0</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
+        <v>5</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6</v>
+      </c>
+      <c r="G9" s="23">
+        <v>10</v>
+      </c>
+      <c r="H9" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2635,11 +2886,23 @@
       <c r="B10" s="19">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="23">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="23">
         <v>8</v>
+      </c>
+      <c r="E10" s="23">
+        <v>3</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,10 +2912,22 @@
       <c r="B11" s="19">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="23">
+        <v>0</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
+        <v>5</v>
+      </c>
+      <c r="F11" s="23">
+        <v>6</v>
+      </c>
+      <c r="G11" s="23">
+        <v>10</v>
+      </c>
+      <c r="H11" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2663,11 +2938,23 @@
       <c r="B12" s="19">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="23">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="23">
         <v>11</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2677,11 +2964,23 @@
       <c r="B13" s="19">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="23">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="23">
         <v>4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>2</v>
+      </c>
+      <c r="G13" s="23">
+        <v>2</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2691,11 +2990,23 @@
       <c r="B14" s="19">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="23">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="23">
         <v>2</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>5</v>
+      </c>
+      <c r="G14" s="23">
+        <v>3</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2705,11 +3016,23 @@
       <c r="B15" s="19">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="23">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="23">
         <v>1</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>5</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2719,10 +3042,22 @@
       <c r="B16" s="19">
         <v>13</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="23">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0</v>
+      </c>
+      <c r="E16" s="23">
+        <v>5</v>
+      </c>
+      <c r="F16" s="23">
+        <v>5</v>
+      </c>
+      <c r="G16" s="23">
+        <v>3</v>
+      </c>
+      <c r="H16" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2733,10 +3068,22 @@
       <c r="B17" s="19">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="23">
+        <v>0</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2</v>
+      </c>
+      <c r="F17" s="23">
+        <v>3</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2747,11 +3094,23 @@
       <c r="B18" s="19">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="23">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>3</v>
+      <c r="H18" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2761,10 +3120,22 @@
       <c r="B19" s="19">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>2</v>
+      </c>
+      <c r="F19" s="23">
+        <v>3</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2775,10 +3146,22 @@
       <c r="B20" s="19">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="23">
+        <v>0</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2</v>
+      </c>
+      <c r="F20" s="23">
+        <v>3</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2789,75 +3172,87 @@
       <c r="B21" s="19">
         <v>13</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23">
+        <v>5</v>
+      </c>
+      <c r="H21" s="23">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="27">
         <f>SUM(B2:B21)</f>
         <v>287</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="27">
         <f>IF(SUM(C2:C21)&gt;0,B22-(SUM(C2:C21)))</f>
-        <v>218</v>
-      </c>
-      <c r="D22">
+        <v>215</v>
+      </c>
+      <c r="D22" s="27">
         <f t="shared" ref="D22:H22" si="0">IF(SUM(D2:D21)&gt;0,C22-(SUM(D2:D21)))</f>
-        <v>138</v>
-      </c>
-      <c r="E22" t="b">
+        <v>149</v>
+      </c>
+      <c r="E22" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" t="b">
+        <v>110</v>
+      </c>
+      <c r="F22" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
+        <v>56</v>
+      </c>
+      <c r="G22" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="b">
+        <v>9</v>
+      </c>
+      <c r="H22" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="28">
         <f>SUM(B2:B21)</f>
         <v>287</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="29">
         <f>B23-($B$23/COUNTA($C$1:$H$1))</f>
         <v>239.16666666666666</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="29">
         <f t="shared" ref="D23:H23" si="1">C23-($B$23/COUNTA($C$1:$H$1))</f>
         <v>191.33333333333331</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="29">
         <f t="shared" si="1"/>
         <v>143.49999999999997</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="29">
         <f t="shared" si="1"/>
         <v>95.666666666666629</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="29">
         <f t="shared" si="1"/>
         <v>47.833333333333293</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2871,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
